--- a/biology/Zoologie/Anatoliurus_kraepelini/Anatoliurus_kraepelini.xlsx
+++ b/biology/Zoologie/Anatoliurus_kraepelini/Anatoliurus_kraepelini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatoliurus kraepelini est une espèce de scorpions de la famille des Iuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Turquie dans les provinces de Mersin, de Karaman, de Konya, d'Isparta, d'Antalya et de Muğla et en Grèce à Kastellórizo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Turquie dans les provinces de Mersin, de Karaman, de Konya, d'Isparta, d'Antalya et de Muğla et en Grèce à Kastellórizo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 88,15 à 100,05 mm et les femelles de 82,50 à 91,20 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 88,15 à 100,05 mm et les femelles de 82,50 à 91,20 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Iurus kraepelini par von Ubisch en 1922. Elle est placée en synonymie avec Iurus dufoureius asiaticus par Vachon en 1947[2]. Elle est relevée de synonymie par Kovařík, Fet, Soleglad et Yağmur en 2010[1]. Elle est placée dans le genre Protoiurus par Soleglad, Fet, Kovařík et Yağmur en 2012[3]puis dans le genre Anatoliurus par Parmakelis, Dimitriadou, Evdokia, Gkigkiza, Stathi, Fet, Yağmur et Kovařík en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Iurus kraepelini par von Ubisch en 1922. Elle est placée en synonymie avec Iurus dufoureius asiaticus par Vachon en 1947. Elle est relevée de synonymie par Kovařík, Fet, Soleglad et Yağmur en 2010. Elle est placée dans le genre Protoiurus par Soleglad, Fet, Kovařík et Yağmur en 2012puis dans le genre Anatoliurus par Parmakelis, Dimitriadou, Evdokia, Gkigkiza, Stathi, Fet, Yağmur et Kovařík en 2022.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Matthias Friedrich Magnus Kraepelin[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl Matthias Friedrich Magnus Kraepelin.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>von Ubisch, 1922 : « Über eine neue Jurus-Art aus Kleinasien nebst einigen Bemerkungen uber die Funktion der Kamme der Scorpione. » Zoologische Jahrbücher, Abtheilung für Systematik, vol. 44, no 6, p. 503–516 (texte intégral).</t>
         </is>
